--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7090" tabRatio="930" activeTab="4"/>
+    <workbookView windowWidth="18530" windowHeight="7130" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="182">
   <si>
     <t>资产梳理</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>邮箱</t>
+  </si>
+  <si>
+    <t>从oa获取</t>
+  </si>
+  <si>
+    <t>弱口令、公共账号</t>
   </si>
   <si>
     <t>代码资产</t>
@@ -1618,7 +1624,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1911,29 +1917,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="2:2">
+    <row r="24" customFormat="1" spans="2:6">
       <c r="B24" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -1943,13 +1955,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>58</v>
@@ -1957,34 +1969,34 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2001,8 +2013,8 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2014,27 +2026,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -2044,7 +2056,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2052,13 +2064,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -2067,13 +2079,13 @@
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -2082,28 +2094,28 @@
     <row r="6" s="7" customFormat="1" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="4:4">
       <c r="D7" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2127,25 +2139,25 @@
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2158,25 +2170,25 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2193,37 +2205,37 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:2">
@@ -2232,13 +2244,13 @@
     </row>
     <row r="28" customFormat="1" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -2250,38 +2262,38 @@
         <v>61</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="15" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:2">
@@ -2290,21 +2302,21 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -2312,28 +2324,28 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -2341,51 +2353,51 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2"/>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" ht="15" spans="2:3">
       <c r="B52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C52" s="11"/>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2426,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2437,26 +2449,26 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2464,18 +2476,18 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2483,10 +2495,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2494,28 +2506,28 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2533,14 +2545,14 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="8"/>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2549,11 +2561,11 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -2573,27 +2585,27 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -2645,18 +2657,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2670,7 +2682,7 @@
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2682,7 +2694,7 @@
     <row r="8" spans="1:2">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -2694,7 +2706,7 @@
     <row r="11" spans="1:2">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2705,7 +2717,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2714,7 +2726,7 @@
     <row r="15" spans="1:2">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2722,10 +2734,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2745,7 +2757,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -2762,7 +2774,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -2779,7 +2791,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -2787,7 +2799,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -2804,7 +2816,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -2812,12 +2824,12 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +2853,7 @@
   <sheetPr/>
   <dimension ref="A3:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -2849,51 +2861,51 @@
   <sheetData>
     <row r="3" s="1" customFormat="1" ht="15" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2919,7 +2931,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" tabRatio="930" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7130" tabRatio="930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="183">
   <si>
     <t>资产梳理</t>
   </si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>安全情报监控及通知</t>
+  </si>
+  <si>
+    <t>https://avd.aliyun.com/detail?id=AVD-2023-25194</t>
   </si>
   <si>
     <t>git权限审计，操作审计</t>
@@ -2013,8 +2016,8 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2643,13 +2646,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="19.5454545454545" customWidth="1"/>
@@ -2665,13 +2668,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2694,7 +2700,7 @@
     <row r="8" spans="1:2">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -2717,7 +2723,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2726,7 +2732,7 @@
     <row r="15" spans="1:2">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2737,7 +2743,7 @@
         <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2861,51 +2867,51 @@
   <sheetData>
     <row r="3" s="1" customFormat="1" ht="15" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2931,7 +2937,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" tabRatio="930" activeTab="3"/>
+    <workbookView windowWidth="18530" windowHeight="7130" tabRatio="930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -1626,8 +1626,8 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2016,8 +2016,8 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2425,8 +2425,8 @@
   <sheetPr/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2648,8 +2648,8 @@
   <sheetPr/>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2860,7 +2860,7 @@
   <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E4" sqref="E4:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2929,8 +2929,8 @@
   <sheetPr/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" tabRatio="930" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
     <sheet name="安全检查" sheetId="1" r:id="rId2"/>
     <sheet name="安全加固与保护" sheetId="4" r:id="rId3"/>
-    <sheet name="感知审计" sheetId="5" r:id="rId4"/>
+    <sheet name="感知审计监控" sheetId="5" r:id="rId4"/>
     <sheet name="规章制度编写与发布" sheetId="2" r:id="rId5"/>
     <sheet name="安全问题运营与管理" sheetId="3" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="169">
   <si>
     <t>资产梳理</t>
   </si>
@@ -27,528 +27,469 @@
     <t>资产类型</t>
   </si>
   <si>
-    <t>位置</t>
+    <t>安全管理问题</t>
+  </si>
+  <si>
+    <t>管理方案</t>
   </si>
   <si>
     <t>梳理方法</t>
   </si>
   <si>
-    <t>进度</t>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>IP类</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、所在位置、登录权限、敏感服务、网段网络隔离、数据库与应用的用途隔离等</t>
+  </si>
+  <si>
+    <t>jumpserver，服务器备案，敏感服务划分及扫描，网络隔离</t>
+  </si>
+  <si>
+    <t>云服务器可使用官方接口获取入库，IDC服务器可使用网段扫描，办公室可手动统计</t>
+  </si>
+  <si>
+    <t>K8S自带隔离及管理</t>
+  </si>
+  <si>
+    <t>负载均衡/动态IP</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、所在位置、使用状态、绑定机器</t>
+  </si>
+  <si>
+    <t>备案</t>
+  </si>
+  <si>
+    <t>使用接口获取入库</t>
+  </si>
+  <si>
+    <t>办公网基础设备（交换机、路由器、打印机）</t>
+  </si>
+  <si>
+    <t>网络管理</t>
+  </si>
+  <si>
+    <t>AD域</t>
+  </si>
+  <si>
+    <t>手动统计</t>
+  </si>
+  <si>
+    <t>域名类</t>
+  </si>
+  <si>
+    <t>公司域名</t>
+  </si>
+  <si>
+    <t>域名续费及证书、所属项目</t>
+  </si>
+  <si>
+    <t>过期监控、域名备案</t>
+  </si>
+  <si>
+    <t>使用接口入库</t>
+  </si>
+  <si>
+    <t>CDN、waf、K8S等云服务</t>
+  </si>
+  <si>
+    <t>续费、归属、域名解析等</t>
+  </si>
+  <si>
+    <t>过期监控、服务备案</t>
+  </si>
+  <si>
+    <t>应用资产</t>
+  </si>
+  <si>
+    <t>web系统</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、。后台类系统的公共账号</t>
+  </si>
+  <si>
+    <t>域名备案、系统不允许存在公共账号</t>
+  </si>
+  <si>
+    <t>对应域名入库</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>渠道上架账号，用户协议合规等合规类规定</t>
+  </si>
+  <si>
+    <t>限制接触范围</t>
+  </si>
+  <si>
+    <t>对应域名入库、从各平台商店获取</t>
+  </si>
+  <si>
+    <t>小程序、公众号等</t>
+  </si>
+  <si>
+    <t>渠道上架账号</t>
+  </si>
+  <si>
+    <t>数据资产</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>归属及账号管理、外网、访问权限</t>
+  </si>
+  <si>
+    <t>备案、网络隔离、权限隔离</t>
+  </si>
+  <si>
+    <t>敏感服务扫描，云服务备案</t>
+  </si>
+  <si>
+    <t>日志中心</t>
+  </si>
+  <si>
+    <t>账号管理、外网、访问权限、敏感信息</t>
+  </si>
+  <si>
+    <t>备案、网络隔离、权限隔离、不收录敏感信息</t>
+  </si>
+  <si>
+    <t>手动统计、域名备案</t>
+  </si>
+  <si>
+    <t>数据平台/大数据</t>
+  </si>
+  <si>
+    <t>mq等队列</t>
+  </si>
+  <si>
+    <t>第三方系统或服务</t>
+  </si>
+  <si>
+    <t>oss</t>
+  </si>
+  <si>
+    <t>oss权限安全管理，梳理权限。ak，角色多对多</t>
+  </si>
+  <si>
+    <t>备案，隔离划分</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>弱口令、公共账号</t>
+  </si>
+  <si>
+    <t>管理员设置密码规则</t>
+  </si>
+  <si>
+    <t>从oa获取</t>
+  </si>
+  <si>
+    <t>代码资产</t>
+  </si>
+  <si>
+    <t>权限过大，git管理混乱、无有效期设置</t>
+  </si>
+  <si>
+    <t>权限审计、设置申请流程</t>
+  </si>
+  <si>
+    <t>git仓库按产品梳理分组</t>
+  </si>
+  <si>
+    <t>容器资产</t>
+  </si>
+  <si>
+    <t>K8S</t>
+  </si>
+  <si>
+    <t>权限过大，权限信息缺失，公共账号</t>
+  </si>
+  <si>
+    <t>权限管理表格</t>
+  </si>
+  <si>
+    <t>漏洞</t>
+  </si>
+  <si>
+    <t>漏洞跟进复测</t>
+  </si>
+  <si>
+    <t>漏洞提醒</t>
+  </si>
+  <si>
+    <t>禅道、SRC等</t>
+  </si>
+  <si>
+    <t>公司员工</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
+    <t>内鬼，安全意识</t>
+  </si>
+  <si>
+    <t>安全意识培训，法律科普，DLP等监控设备安装</t>
+  </si>
+  <si>
+    <t>全员培训</t>
+  </si>
+  <si>
+    <t>平台账号资产</t>
+  </si>
+  <si>
+    <t>微博，B站，知乎，微信</t>
   </si>
   <si>
     <t>安全管理</t>
   </si>
   <si>
-    <t>管理方案</t>
-  </si>
-  <si>
-    <t>IP类</t>
-  </si>
-  <si>
-    <t>服务器</t>
-  </si>
-  <si>
-    <t>华为云</t>
-  </si>
-  <si>
-    <t>使用华为接口获取入库</t>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>检查项</t>
+  </si>
+  <si>
+    <t>检查方式</t>
+  </si>
+  <si>
+    <t>敏感服务</t>
+  </si>
+  <si>
+    <t>端口扫描</t>
+  </si>
+  <si>
+    <t>linglong+xray</t>
+  </si>
+  <si>
+    <t>系统漏洞</t>
+  </si>
+  <si>
+    <t>HIDS客户端、内网渗透</t>
+  </si>
+  <si>
+    <t>弱口令</t>
+  </si>
+  <si>
+    <t>渗透测试</t>
+  </si>
+  <si>
+    <t>敏感路径敏感文件</t>
+  </si>
+  <si>
+    <t>扫描</t>
+  </si>
+  <si>
+    <t>xray+crwler</t>
+  </si>
+  <si>
+    <t>渗透测试、自动化回归测试</t>
+  </si>
+  <si>
+    <t>有效期</t>
+  </si>
+  <si>
+    <t>代码检查</t>
+  </si>
+  <si>
+    <t>过期报警</t>
+  </si>
+  <si>
+    <t>合规检查</t>
+  </si>
+  <si>
+    <t>数据安全、内容安全</t>
+  </si>
+  <si>
+    <t>逻辑漏洞</t>
+  </si>
+  <si>
+    <t>渗透测试、IAST等动态模糊测试</t>
+  </si>
+  <si>
+    <t>依赖漏洞</t>
+  </si>
+  <si>
+    <t>依赖包检查，git或HIDS</t>
+  </si>
+  <si>
+    <t>https://owasp.org/www-project-dependency-check/</t>
+  </si>
+  <si>
+    <t>https://dimitr.im/dependency-vulnerability-checks-sonarqube</t>
+  </si>
+  <si>
+    <t>业务安全</t>
+  </si>
+  <si>
+    <t>薅羊毛、爬虫、作弊等</t>
+  </si>
+  <si>
+    <t>权限审计</t>
+  </si>
+  <si>
+    <t>安全使用（升级、隔离、审计、不共享等等）</t>
+  </si>
+  <si>
+    <t>审计</t>
+  </si>
+  <si>
+    <t>安全审计</t>
+  </si>
+  <si>
+    <t>依赖安全检查</t>
+  </si>
+  <si>
+    <t>容器资产/K8S</t>
+  </si>
+  <si>
+    <t>镜像安全检查</t>
+  </si>
+  <si>
+    <t>管理端安全配置检查</t>
+  </si>
+  <si>
+    <t>安全意识考试、钓鱼测试、账号弱口令</t>
+  </si>
+  <si>
+    <t>细分类型</t>
+  </si>
+  <si>
+    <t>保护方式</t>
+  </si>
+  <si>
+    <t>云服务器</t>
+  </si>
+  <si>
+    <t>阿里云基础版免费</t>
+  </si>
+  <si>
+    <t>https://help.aliyun.com/document_detail/213179.html</t>
+  </si>
+  <si>
+    <t>华为基础版花钱</t>
+  </si>
+  <si>
+    <t>K8S安全加固</t>
+  </si>
+  <si>
+    <t>安全配置</t>
+  </si>
+  <si>
+    <t>主域名</t>
+  </si>
+  <si>
+    <t>续费，转移，DNS设置</t>
+  </si>
+  <si>
+    <t>子域名</t>
+  </si>
+  <si>
+    <t>WAF</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>加壳加固</t>
+  </si>
+  <si>
+    <t>数据安全</t>
+  </si>
+  <si>
+    <t>脱敏</t>
+  </si>
+  <si>
+    <t>全链路日志追踪</t>
+  </si>
+  <si>
+    <t>取消批量操作</t>
+  </si>
+  <si>
+    <t>数据安全法等合规</t>
+  </si>
+  <si>
+    <t>补丁及更新，定期检查软件包</t>
+  </si>
+  <si>
+    <t>安全更新提醒</t>
+  </si>
+  <si>
+    <t>git监控</t>
+  </si>
+  <si>
+    <t>新员工培训</t>
+  </si>
+  <si>
+    <t>小故事</t>
+  </si>
+  <si>
+    <t>渗透CTF</t>
+  </si>
+  <si>
+    <t>资产项</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>安全情报监控及通知</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
-    <t>登录权限</t>
-  </si>
-  <si>
-    <t>jumpserver</t>
-  </si>
-  <si>
-    <t>K8S自带隔离及管理</t>
-  </si>
-  <si>
-    <t>内网</t>
-  </si>
-  <si>
-    <t>使用内网扫描网段存活</t>
-  </si>
-  <si>
-    <t>测试/内网服务</t>
-  </si>
-  <si>
-    <t>网络隔离</t>
-  </si>
-  <si>
-    <t>guest网无法访问其他。</t>
-  </si>
-  <si>
-    <t>负载均衡</t>
-  </si>
-  <si>
-    <t>办公网设备</t>
-  </si>
-  <si>
-    <t>手动添加</t>
-  </si>
-  <si>
-    <t>不允许员工私设路由</t>
-  </si>
-  <si>
-    <t>域名类</t>
+    <t>https://avd.aliyun.com/detail?id=AVD-2023-25194</t>
   </si>
   <si>
     <t>域名</t>
   </si>
   <si>
-    <t>阿里云</t>
-  </si>
-  <si>
-    <t>使用接口入库</t>
-  </si>
-  <si>
-    <t>域名续费及证书等</t>
-  </si>
-  <si>
-    <t>过期监控</t>
-  </si>
-  <si>
-    <t>应用资产</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>对应域名入库</t>
-  </si>
-  <si>
-    <t>后台类系统的公共账号</t>
-  </si>
-  <si>
-    <t>不允许存在公共账号</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>渠道账号经手人过多</t>
-  </si>
-  <si>
-    <t>限制接触范围</t>
-  </si>
-  <si>
-    <t>小程序</t>
-  </si>
-  <si>
-    <t>数据资产</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>账号过多</t>
-  </si>
-  <si>
-    <t>文档记录各账号归属及用途</t>
-  </si>
-  <si>
-    <t>日志中心</t>
-  </si>
-  <si>
-    <t>1.外网访问</t>
-  </si>
-  <si>
-    <t>不能外网访问</t>
-  </si>
-  <si>
-    <t>2.公共账号</t>
-  </si>
-  <si>
-    <t>每人一个账号</t>
-  </si>
-  <si>
-    <t>3.不同密级信息混杂</t>
-  </si>
-  <si>
-    <t>涉密信息单独存放</t>
-  </si>
-  <si>
-    <t>数据平台/大数据</t>
-  </si>
-  <si>
-    <t>华为云obs</t>
-  </si>
-  <si>
-    <t>就是深桐看板，只获取统计信息，无详细信息</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>第三方系统或服务</t>
-  </si>
-  <si>
-    <t>oss</t>
-  </si>
-  <si>
-    <t>oss权限安全管理，梳理权限。ak，角色多对多</t>
-  </si>
-  <si>
-    <t>权限信息缺失，</t>
-  </si>
-  <si>
-    <t>权限管理表格</t>
-  </si>
-  <si>
-    <t>公共账号</t>
-  </si>
-  <si>
-    <t>正在处理</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>从oa获取</t>
-  </si>
-  <si>
-    <t>弱口令、公共账号</t>
-  </si>
-  <si>
-    <t>代码资产</t>
-  </si>
-  <si>
-    <t>git仓库按产品梳理分组</t>
-  </si>
-  <si>
-    <t>权限过大，无有效期设置</t>
-  </si>
-  <si>
-    <t>权限审计</t>
-  </si>
-  <si>
-    <t>容器资产</t>
-  </si>
-  <si>
-    <t>K8S</t>
-  </si>
-  <si>
-    <t>权限过大，权限信息缺失，公共账号</t>
-  </si>
-  <si>
-    <t>漏洞</t>
-  </si>
-  <si>
-    <t>禅道等</t>
-  </si>
-  <si>
-    <t>漏洞跟进复测</t>
-  </si>
-  <si>
     <t>SRC</t>
   </si>
   <si>
-    <t>公司员工</t>
-  </si>
-  <si>
-    <t>安全意识培训</t>
-  </si>
-  <si>
-    <t>新员工培训</t>
-  </si>
-  <si>
-    <t>全员培训</t>
-  </si>
-  <si>
-    <t>资产项</t>
-  </si>
-  <si>
-    <t>检查项</t>
-  </si>
-  <si>
-    <t>检查方式</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>端口</t>
-  </si>
-  <si>
-    <t>服务器安全扫描</t>
-  </si>
-  <si>
-    <t>linglong+xray</t>
-  </si>
-  <si>
-    <t>内网测试</t>
-  </si>
-  <si>
-    <t>有效期</t>
-  </si>
-  <si>
-    <t>域名过期报警</t>
-  </si>
-  <si>
-    <t>域名入库</t>
-  </si>
-  <si>
-    <t>敏感路径</t>
-  </si>
-  <si>
-    <t>域名安全扫描</t>
-  </si>
-  <si>
-    <t>xray+crwler</t>
-  </si>
-  <si>
-    <t>API测试</t>
-  </si>
-  <si>
-    <t>自动化测试</t>
-  </si>
-  <si>
-    <t>jenkins自己写脚本</t>
-  </si>
-  <si>
-    <t>只能做回归漏洞测试，无法做其他的</t>
-  </si>
-  <si>
-    <t>zap，没有用</t>
-  </si>
-  <si>
-    <t>IAST</t>
-  </si>
-  <si>
-    <t>应用逻辑漏洞</t>
-  </si>
-  <si>
-    <t>安全测试</t>
-  </si>
-  <si>
-    <t>依赖漏洞</t>
-  </si>
-  <si>
-    <t>依赖包检查</t>
-  </si>
-  <si>
-    <t>https://owasp.org/www-project-dependency-check/</t>
-  </si>
-  <si>
-    <t>https://dimitr.im/dependency-vulnerability-checks-sonarqube</t>
+    <t>git权限审计，操作审计</t>
+  </si>
+  <si>
+    <t>GitHub监控</t>
+  </si>
+  <si>
+    <t>waf报警通知安全</t>
+  </si>
+  <si>
+    <t>蜜罐。日志分析</t>
   </si>
   <si>
     <t>业务系统</t>
   </si>
   <si>
-    <t>弱口令</t>
-  </si>
-  <si>
-    <t>公共账户</t>
-  </si>
-  <si>
-    <t>数据脱敏</t>
-  </si>
-  <si>
-    <t>数据安全检查表</t>
+    <t>SOC</t>
   </si>
   <si>
     <t>数据库资产</t>
   </si>
   <si>
-    <t>端口开放</t>
-  </si>
-  <si>
-    <t>审计</t>
-  </si>
-  <si>
-    <t>操作审计</t>
-  </si>
-  <si>
-    <t>信息泄露</t>
-  </si>
-  <si>
-    <t>GitHub监控</t>
+    <t>操作日志审计</t>
   </si>
   <si>
     <t>第三方服务</t>
   </si>
   <si>
-    <t>oss信息泄露监控</t>
-  </si>
-  <si>
-    <t>弱口令测试</t>
-  </si>
-  <si>
-    <t>hydra</t>
-  </si>
-  <si>
-    <t>完成。腾讯企业邮，跑不动</t>
-  </si>
-  <si>
-    <t>邮箱，电话等。</t>
-  </si>
-  <si>
-    <t>crm软件等</t>
-  </si>
-  <si>
-    <t>第三方安全公告</t>
-  </si>
-  <si>
-    <t>oss文件病毒检查</t>
-  </si>
-  <si>
-    <t>上传病毒压缩包</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>途径有：招聘网站。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HR。商务联系邮箱，客服电话。Top姓名邮箱爆破。</t>
-    </r>
-  </si>
-  <si>
     <t>代码</t>
   </si>
   <si>
-    <t>代码安全扫描</t>
-  </si>
-  <si>
-    <t>代码监控</t>
-  </si>
-  <si>
-    <t>gshark</t>
-  </si>
-  <si>
-    <t>K8S安全检查</t>
-  </si>
-  <si>
-    <t>容器安全检查</t>
-  </si>
-  <si>
-    <t>镜像安全检查</t>
-  </si>
-  <si>
     <t>业务</t>
-  </si>
-  <si>
-    <t>业务安全</t>
-  </si>
-  <si>
-    <t>薅羊毛，反爬虫等</t>
-  </si>
-  <si>
-    <t>压缩文件病毒检查</t>
-  </si>
-  <si>
-    <t>合规检查</t>
-  </si>
-  <si>
-    <t>数据安全法</t>
-  </si>
-  <si>
-    <t>APP信息收集规定</t>
-  </si>
-  <si>
-    <t>细分类型</t>
-  </si>
-  <si>
-    <t>保护方式</t>
-  </si>
-  <si>
-    <t>云服务器</t>
-  </si>
-  <si>
-    <t>阿里云基础版免费</t>
-  </si>
-  <si>
-    <t>https://help.aliyun.com/document_detail/213179.html</t>
-  </si>
-  <si>
-    <t>华为基础版花钱</t>
-  </si>
-  <si>
-    <t>K8S安全加固</t>
-  </si>
-  <si>
-    <t>安全配置</t>
-  </si>
-  <si>
-    <t>主域名</t>
-  </si>
-  <si>
-    <t>续费，转移，DNS设置</t>
-  </si>
-  <si>
-    <t>子域名</t>
-  </si>
-  <si>
-    <t>WAF</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>加壳加固</t>
-  </si>
-  <si>
-    <t>数据安全</t>
-  </si>
-  <si>
-    <t>脱敏</t>
-  </si>
-  <si>
-    <t>全链路日志追踪</t>
-  </si>
-  <si>
-    <t>取消批量操作</t>
-  </si>
-  <si>
-    <t>数据安全法等合规</t>
-  </si>
-  <si>
-    <t>补丁及更新，定期检查软件包</t>
-  </si>
-  <si>
-    <t>安全更新提醒</t>
-  </si>
-  <si>
-    <t>git监控</t>
-  </si>
-  <si>
-    <t>小故事</t>
-  </si>
-  <si>
-    <t>渗透CTF</t>
-  </si>
-  <si>
-    <t>安全情报监控及通知</t>
-  </si>
-  <si>
-    <t>https://avd.aliyun.com/detail?id=AVD-2023-25194</t>
-  </si>
-  <si>
-    <t>git权限审计，操作审计</t>
-  </si>
-  <si>
-    <t>waf报警通知安全</t>
-  </si>
-  <si>
-    <t>蜜罐。日志分析</t>
-  </si>
-  <si>
-    <t>SOC</t>
   </si>
   <si>
     <t>及时了解安全威胁</t>
@@ -597,7 +538,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,12 +584,6 @@
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1096,10 +1031,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,16 +1043,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1126,15 +1061,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,101 +1082,98 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,10 +1190,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1270,11 +1217,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1624,387 +1586,371 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E35"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="14.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="6" max="6" width="21.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="18.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.5462962962963" style="15" customWidth="1"/>
+    <col min="4" max="4" width="20.5555555555556" style="15" customWidth="1"/>
+    <col min="5" max="5" width="23" style="15" customWidth="1"/>
+    <col min="6" max="7" width="8.73148148148148" style="6"/>
+    <col min="8" max="8" width="18.2222222222222" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="8.73148148148148" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" ht="76" customHeight="1" spans="1:8">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" ht="49" customHeight="1" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" ht="43.2" spans="1:5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
+    <row r="6" ht="28.8" spans="1:5">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
+      <c r="B6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D6" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="E6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="7" ht="28.8" spans="1:5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" ht="43.2" spans="1:5">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7">
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="10" ht="28.8" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="C10" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" t="s">
+      <c r="D10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E10" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:7">
-      <c r="A14" s="4" t="s">
+    </row>
+    <row r="13" s="7" customFormat="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="C13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="D13" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="2:7">
-      <c r="B15" s="5" t="s">
+      <c r="E13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" s="7" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A14" s="9"/>
+      <c r="B14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="C14" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="2:7">
-      <c r="B16" s="5"/>
-      <c r="F16" s="4" t="s">
+      <c r="D14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="E14" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="2:7">
-      <c r="B17" s="5"/>
-      <c r="F17" s="4" t="s">
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" s="7" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A15" s="9"/>
+      <c r="B15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="C15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" ht="43.2" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" s="7" customFormat="1" spans="2:6">
-      <c r="B18" s="7" t="s">
+      <c r="C16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="D18" s="15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" s="7" customFormat="1" spans="1:8">
+      <c r="E18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:8">
+      <c r="A19" s="9"/>
+      <c r="B19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:8">
+      <c r="A20" s="7"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" ht="28.8" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="1:4">
+      <c r="A29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" s="4" customFormat="1" spans="6:7">
-      <c r="F22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="6:7">
-      <c r="F23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="2:6">
-      <c r="B24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="4"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D29" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B15:B17"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2014,405 +1960,325 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:D53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="16.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="15.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="14.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.2685185185185" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18" style="6" customWidth="1"/>
+    <col min="4" max="5" width="9" style="15"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" ht="28.8" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="C2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" ht="28.8" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="D6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" s="7" customFormat="1" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="7" customFormat="1" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D9" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="4:4">
-      <c r="D7" s="4" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" ht="129.6" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="D13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C14" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+    <row r="15" s="11" customFormat="1"/>
+    <row r="16" s="11" customFormat="1"/>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="19" ht="43.2" spans="1:3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="18" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="4" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="4" t="s">
+    </row>
+    <row r="26" s="7" customFormat="1" spans="2:5">
+      <c r="B26" s="3"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="2:5">
+      <c r="B27" s="3"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" s="6" customFormat="1" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="15" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" ht="15" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="2:5">
+      <c r="B29" s="3"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" s="6" customFormat="1" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" s="6" customFormat="1" spans="2:5">
+      <c r="B31" s="3"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" s="6" customFormat="1" spans="2:5">
+      <c r="B32" s="17"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" s="6" customFormat="1" spans="2:5">
+      <c r="B33" s="17"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="17"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="7"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" ht="15" spans="2:3">
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="11"/>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>76</v>
-      </c>
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2425,190 +2291,243 @@
   <sheetPr/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="16.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="26.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" customWidth="1"/>
+    <col min="2" max="2" width="16.9074074074074" customWidth="1"/>
+    <col min="3" max="3" width="26.0925925925926" customWidth="1"/>
+    <col min="8" max="8" width="22.1851851851852" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
+        <v>117</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>119</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>123</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>125</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="H11" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>129</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="C14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>130</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4"/>
       <c r="C15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>131</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="C16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="H17" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="12"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="12"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="B20" s="12"/>
       <c r="C20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>134</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22" s="12"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="B23" s="12"/>
       <c r="C23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="H24" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="2"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>136</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
       <c r="C30" t="s">
-        <v>164</v>
+        <v>138</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -2621,19 +2540,25 @@
       <c r="B38" s="2"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="10"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="10"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="10"/>
+      <c r="B43" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B41:B43"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://help.aliyun.com/document_detail/213179.html"/>
@@ -2649,46 +2574,46 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="19.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="16.2685185185185" customWidth="1"/>
+    <col min="2" max="2" width="19.5462962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2700,7 +2625,7 @@
     <row r="8" spans="1:2">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -2712,7 +2637,7 @@
     <row r="11" spans="1:2">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2720,10 +2645,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2732,7 +2657,7 @@
     <row r="15" spans="1:2">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2740,10 +2665,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2763,11 +2688,14 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2"/>
@@ -2780,7 +2708,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -2797,7 +2725,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -2805,7 +2733,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -2822,7 +2750,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -2830,12 +2758,12 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2863,55 +2791,55 @@
       <selection activeCell="E4" sqref="E4:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="15" spans="2:8">
+    <row r="3" s="1" customFormat="1" ht="15.6" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2929,15 +2857,15 @@
   <sheetPr/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="安全加固与保护" sheetId="4" r:id="rId3"/>
     <sheet name="感知审计监控" sheetId="5" r:id="rId4"/>
     <sheet name="规章制度编写与发布" sheetId="2" r:id="rId5"/>
-    <sheet name="安全问题运营与管理" sheetId="3" r:id="rId6"/>
+    <sheet name="安全运营与管理" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="161">
   <si>
     <t>资产梳理</t>
   </si>
@@ -294,202 +294,178 @@
     <t>xray+crwler</t>
   </si>
   <si>
+    <t>渗透测试、自动化回归/渗透测试</t>
+  </si>
+  <si>
+    <t>有效期</t>
+  </si>
+  <si>
+    <t>代码检查</t>
+  </si>
+  <si>
+    <t>过期报警</t>
+  </si>
+  <si>
+    <t>合规检查</t>
+  </si>
+  <si>
+    <t>数据安全、内容安全</t>
+  </si>
+  <si>
+    <t>逻辑漏洞</t>
+  </si>
+  <si>
+    <t>渗透测试、IAST等动态模糊测试</t>
+  </si>
+  <si>
+    <t>依赖漏洞</t>
+  </si>
+  <si>
+    <t>依赖包检查，git或HIDS</t>
+  </si>
+  <si>
+    <t>https://owasp.org/www-project-dependency-check/</t>
+  </si>
+  <si>
+    <t>https://dimitr.im/dependency-vulnerability-checks-sonarqube</t>
+  </si>
+  <si>
+    <t>业务安全</t>
+  </si>
+  <si>
+    <t>薅羊毛、爬虫、作弊等</t>
+  </si>
+  <si>
+    <t>权限审计</t>
+  </si>
+  <si>
+    <t>安全使用（升级、隔离、审计、不共享等等）</t>
+  </si>
+  <si>
+    <t>审计</t>
+  </si>
+  <si>
+    <t>安全审计</t>
+  </si>
+  <si>
+    <t>依赖安全检查</t>
+  </si>
+  <si>
+    <t>容器资产/K8S</t>
+  </si>
+  <si>
+    <t>镜像安全检查</t>
+  </si>
+  <si>
+    <t>管理端安全配置检查</t>
+  </si>
+  <si>
+    <t>安全意识考试、钓鱼测试、账号弱口令</t>
+  </si>
+  <si>
+    <t>安全加固</t>
+  </si>
+  <si>
+    <t>HIDS/高防</t>
+  </si>
+  <si>
+    <t>阿里云基础版免费</t>
+  </si>
+  <si>
+    <t>https://help.aliyun.com/document_detail/213179.html</t>
+  </si>
+  <si>
+    <t>办公网安全设备，流量分析设备</t>
+  </si>
+  <si>
+    <t>WAF/平台安全设置（转移锁，解析历史，隐私保护）</t>
+  </si>
+  <si>
+    <t>云服务安全设置</t>
+  </si>
+  <si>
+    <t>WAF</t>
+  </si>
+  <si>
+    <t>安装包加壳加固</t>
+  </si>
+  <si>
+    <t>数据源唯一性、安全设置</t>
+  </si>
+  <si>
+    <t>全链路日志追踪，谁什么时间通过什么方式查看了什么敏感信息</t>
+  </si>
+  <si>
+    <t>数据平台/大数据部门</t>
+  </si>
+  <si>
+    <t>脱敏等合规</t>
+  </si>
+  <si>
+    <t>网络限制及账号限制</t>
+  </si>
+  <si>
+    <t>oss，禅道，财务系统</t>
+  </si>
+  <si>
+    <t>注意安全更新，密码设置要求</t>
+  </si>
+  <si>
+    <t>密码复杂度设置</t>
+  </si>
+  <si>
+    <t>权限审计、授权设置、clone等敏感操作记录</t>
+  </si>
+  <si>
+    <t>安全配置</t>
+  </si>
+  <si>
+    <t>尽快修复</t>
+  </si>
+  <si>
+    <t>安全意识培训、法律科普</t>
+  </si>
+  <si>
+    <t>监控审计</t>
+  </si>
+  <si>
+    <t>公网开放敏感服务监控、内网蜜罐监控是否存在内网攻击</t>
+  </si>
+  <si>
+    <t>waf、续费提醒</t>
+  </si>
+  <si>
+    <t>SOC系统收集WAF/异常日志等</t>
+  </si>
+  <si>
     <t>渗透测试、自动化回归测试</t>
   </si>
   <si>
-    <t>有效期</t>
-  </si>
-  <si>
-    <t>代码检查</t>
-  </si>
-  <si>
-    <t>过期报警</t>
-  </si>
-  <si>
-    <t>合规检查</t>
-  </si>
-  <si>
-    <t>数据安全、内容安全</t>
-  </si>
-  <si>
-    <t>逻辑漏洞</t>
-  </si>
-  <si>
-    <t>渗透测试、IAST等动态模糊测试</t>
-  </si>
-  <si>
-    <t>依赖漏洞</t>
-  </si>
-  <si>
-    <t>依赖包检查，git或HIDS</t>
-  </si>
-  <si>
-    <t>https://owasp.org/www-project-dependency-check/</t>
-  </si>
-  <si>
-    <t>https://dimitr.im/dependency-vulnerability-checks-sonarqube</t>
-  </si>
-  <si>
-    <t>业务安全</t>
-  </si>
-  <si>
-    <t>薅羊毛、爬虫、作弊等</t>
-  </si>
-  <si>
-    <t>权限审计</t>
-  </si>
-  <si>
-    <t>安全使用（升级、隔离、审计、不共享等等）</t>
-  </si>
-  <si>
-    <t>审计</t>
-  </si>
-  <si>
-    <t>安全审计</t>
-  </si>
-  <si>
-    <t>依赖安全检查</t>
-  </si>
-  <si>
-    <t>容器资产/K8S</t>
-  </si>
-  <si>
-    <t>镜像安全检查</t>
-  </si>
-  <si>
-    <t>管理端安全配置检查</t>
-  </si>
-  <si>
-    <t>安全意识考试、钓鱼测试、账号弱口令</t>
-  </si>
-  <si>
-    <t>细分类型</t>
-  </si>
-  <si>
-    <t>保护方式</t>
-  </si>
-  <si>
-    <t>云服务器</t>
-  </si>
-  <si>
-    <t>阿里云基础版免费</t>
-  </si>
-  <si>
-    <t>https://help.aliyun.com/document_detail/213179.html</t>
-  </si>
-  <si>
-    <t>华为基础版花钱</t>
-  </si>
-  <si>
-    <t>K8S安全加固</t>
-  </si>
-  <si>
-    <t>安全配置</t>
-  </si>
-  <si>
-    <t>主域名</t>
-  </si>
-  <si>
-    <t>续费，转移，DNS设置</t>
-  </si>
-  <si>
-    <t>子域名</t>
-  </si>
-  <si>
-    <t>WAF</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>加壳加固</t>
-  </si>
-  <si>
-    <t>数据安全</t>
-  </si>
-  <si>
-    <t>脱敏</t>
-  </si>
-  <si>
-    <t>全链路日志追踪</t>
-  </si>
-  <si>
-    <t>取消批量操作</t>
-  </si>
-  <si>
-    <t>数据安全法等合规</t>
-  </si>
-  <si>
-    <t>补丁及更新，定期检查软件包</t>
-  </si>
-  <si>
-    <t>安全更新提醒</t>
-  </si>
-  <si>
-    <t>git监控</t>
-  </si>
-  <si>
-    <t>新员工培训</t>
-  </si>
-  <si>
-    <t>小故事</t>
-  </si>
-  <si>
-    <t>渗透CTF</t>
-  </si>
-  <si>
-    <t>资产项</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>安全情报监控及通知</t>
-  </si>
-  <si>
-    <t>完成</t>
+    <t>渗透测试、自动化回归测试、合规检查</t>
+  </si>
+  <si>
+    <t>mysql-audit、数据使用合规检查、数据获取审计</t>
+  </si>
+  <si>
+    <t>安全情报，应用升级</t>
+  </si>
+  <si>
+    <t>GitHub监控、git权限审计，操作审计</t>
+  </si>
+  <si>
+    <t>安全配置检查</t>
+  </si>
+  <si>
+    <t>安全情报通知、SRC</t>
   </si>
   <si>
     <t>https://avd.aliyun.com/detail?id=AVD-2023-25194</t>
   </si>
   <si>
-    <t>域名</t>
-  </si>
-  <si>
-    <t>SRC</t>
-  </si>
-  <si>
-    <t>git权限审计，操作审计</t>
-  </si>
-  <si>
-    <t>GitHub监控</t>
-  </si>
-  <si>
-    <t>waf报警通知安全</t>
-  </si>
-  <si>
-    <t>蜜罐。日志分析</t>
-  </si>
-  <si>
-    <t>业务系统</t>
-  </si>
-  <si>
-    <t>SOC</t>
-  </si>
-  <si>
-    <t>数据库资产</t>
-  </si>
-  <si>
-    <t>操作日志审计</t>
-  </si>
-  <si>
-    <t>第三方服务</t>
-  </si>
-  <si>
-    <t>代码</t>
-  </si>
-  <si>
-    <t>业务</t>
+    <t>DLP设备</t>
+  </si>
+  <si>
+    <t>舆情监控审计、员工价值观</t>
   </si>
   <si>
     <t>及时了解安全威胁</t>
@@ -538,7 +514,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,13 +536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -575,14 +544,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1031,10 +993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,137 +1005,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,59 +1143,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1588,359 +1517,356 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.5462962962963" style="15" customWidth="1"/>
-    <col min="4" max="4" width="20.5555555555556" style="15" customWidth="1"/>
-    <col min="5" max="5" width="23" style="15" customWidth="1"/>
-    <col min="6" max="7" width="8.73148148148148" style="6"/>
-    <col min="8" max="8" width="18.2222222222222" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="8.73148148148148" style="6"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.5462962962963" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.5555555555556" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23" style="4" customWidth="1"/>
+    <col min="6" max="7" width="8.73148148148148" style="3"/>
+    <col min="8" max="8" width="18.2222222222222" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.73148148148148" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="4:4">
-      <c r="D8" s="16"/>
-    </row>
     <row r="9" ht="43.2" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A13" s="9" t="s">
+    <row r="13" s="3" customFormat="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" s="7" customFormat="1" ht="43.2" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="B14" s="20" t="s">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" s="7" customFormat="1" ht="43.2" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="B15" s="16" t="s">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" ht="43.2" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" ht="43.2" spans="1:8">
-      <c r="A18" s="9" t="s">
+    <row r="18" s="3" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" s="6" customFormat="1" spans="1:8">
-      <c r="A19" s="9"/>
-      <c r="B19" s="16" t="s">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:8">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:8">
-      <c r="A20" s="7"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" ht="28.8" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:4">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:5">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:4">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1960,316 +1886,285 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.2685185185185" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18" style="6" customWidth="1"/>
-    <col min="4" max="5" width="9" style="15"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.2685185185185" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9" style="4"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="17"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" ht="28.8" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" s="7" customFormat="1" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" s="7" customFormat="1" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" ht="129.6" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" s="11" customFormat="1"/>
-    <row r="16" s="11" customFormat="1"/>
+    <row r="15" s="8" customFormat="1"/>
+    <row r="16" s="8" customFormat="1"/>
     <row r="17" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" ht="43.2" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="17"/>
+    <row r="20" spans="2:2">
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="2:5">
-      <c r="B26" s="3"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" s="6" customFormat="1" spans="2:5">
-      <c r="B27" s="3"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" s="6" customFormat="1" spans="1:5">
-      <c r="A28" s="7" t="s">
+    <row r="26" s="3" customFormat="1" spans="2:5">
+      <c r="B26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="2:5">
+      <c r="B27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:5">
+      <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" s="6" customFormat="1" spans="2:5">
-      <c r="B29" s="3"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" s="6" customFormat="1" spans="1:5">
-      <c r="A30" s="7" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="2:5">
+      <c r="B29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:5">
+      <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" s="6" customFormat="1" spans="2:5">
-      <c r="B31" s="3"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" s="6" customFormat="1" spans="2:5">
-      <c r="B32" s="17"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" s="6" customFormat="1" spans="2:5">
-      <c r="B33" s="17"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="2:5">
+      <c r="B31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="2:5">
+      <c r="B32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="2:5">
+      <c r="B33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="17"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="17"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="7"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="7"/>
+      <c r="B35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2289,279 +2184,234 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" customWidth="1"/>
-    <col min="2" max="2" width="16.9074074074074" customWidth="1"/>
-    <col min="3" max="3" width="26.0925925925926" customWidth="1"/>
-    <col min="8" max="8" width="22.1851851851852" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
+    </row>
+    <row r="7" ht="28.8" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>120</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="6" spans="8:8">
-      <c r="H6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>124</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="15" ht="28.8" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C15" t="s">
         <v>126</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="H11" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="18" ht="28.8" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4"/>
-      <c r="C14" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4"/>
-      <c r="C15" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4"/>
-      <c r="C16" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7"/>
-      <c r="H17" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="12"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="12"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4"/>
-      <c r="B21" s="12"/>
-      <c r="C21" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4"/>
-      <c r="B22" s="12"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="H24" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="9"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="2"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="2"/>
-      <c r="C28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
+    </row>
+    <row r="29" ht="28.8" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="14"/>
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H24:H25"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://help.aliyun.com/document_detail/213179.html"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://help.aliyun.com/document_detail/213179.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2571,211 +2421,219 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.2685185185185" customWidth="1"/>
-    <col min="2" max="2" width="19.5462962962963" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>141</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
         <v>142</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
+      <c r="D25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="29" ht="28.8" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
-      <c r="B24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A44:A45"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2788,58 +2646,58 @@
   <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:K15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
     <row r="3" s="1" customFormat="1" ht="15.6" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2857,15 +2715,15 @@
   <sheetPr/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="164">
   <si>
     <t>资产梳理</t>
   </si>
@@ -375,7 +375,7 @@
     <t>https://help.aliyun.com/document_detail/213179.html</t>
   </si>
   <si>
-    <t>办公网安全设备，流量分析设备</t>
+    <t>办公网安全设备，流量分析设备，AD域管理，网络准入管理</t>
   </si>
   <si>
     <t>WAF/平台安全设置（转移锁，解析历史，隐私保护）</t>
@@ -468,40 +468,49 @@
     <t>舆情监控审计、员工价值观</t>
   </si>
   <si>
-    <t>及时了解安全威胁</t>
-  </si>
-  <si>
-    <t>安全运维</t>
-  </si>
-  <si>
-    <t>有安全情报群，需要群公告写明漏洞修复标准</t>
-  </si>
-  <si>
-    <t>运维安全指南</t>
-  </si>
-  <si>
-    <t>标签命令规范</t>
-  </si>
-  <si>
-    <t>起草规范</t>
-  </si>
-  <si>
-    <t>标签脚本</t>
-  </si>
-  <si>
-    <t>打标签提醒</t>
-  </si>
-  <si>
-    <t>H3C</t>
-  </si>
-  <si>
-    <t>官网有安全配置指导</t>
-  </si>
-  <si>
-    <t>文档制度上线发布流程服务器运维规范，办公网准入防病毒SSO双因子因素，反爬风控防作弊</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>SRC漏洞提交规定</t>
+  </si>
+  <si>
+    <t>SRC奖励标准</t>
+  </si>
+  <si>
+    <t>云服务安全配置规定</t>
+  </si>
+  <si>
+    <t>办公系统、基础设备安全使用规定</t>
+  </si>
+  <si>
+    <t>采购系统安全评审</t>
+  </si>
+  <si>
+    <t>网络安全法</t>
+  </si>
+  <si>
+    <t>漏洞修复规定</t>
+  </si>
+  <si>
+    <t>公司信息安全规定、各部门信息密级划分</t>
+  </si>
+  <si>
+    <t>安全编程</t>
+  </si>
+  <si>
+    <t>信息发布规定</t>
+  </si>
+  <si>
+    <t>安全考试规定</t>
+  </si>
+  <si>
+    <t>等级保护</t>
+  </si>
+  <si>
+    <t>运维安全指南、敏感服务规定</t>
+  </si>
+  <si>
+    <t>数据安全、脱敏</t>
+  </si>
+  <si>
+    <t>SOC</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1526,8 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1888,15 +1897,15 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.2685185185185" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.2222222222222" style="3" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
@@ -2186,8 +2195,8 @@
   <sheetPr/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2423,8 +2432,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2473,7 +2482,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
@@ -2549,7 +2558,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:3">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:3">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
@@ -2643,22 +2652,26 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H14"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="15.6" spans="2:8">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2667,42 +2680,80 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>153</v>
       </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B7" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
+    <row r="8" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B8" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="9" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B10" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="7:7">
-      <c r="G14" t="s">
+    <row r="11" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B11" s="1" t="s">
         <v>159</v>
       </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:2">
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15.6" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2716,14 +2767,14 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -1526,8 +1526,8 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1897,8 +1897,8 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2720,7 +2720,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="2:2">
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -2766,7 +2766,7 @@
   <sheetPr/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>

--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="167">
   <si>
     <t>资产梳理</t>
   </si>
@@ -429,7 +429,13 @@
     <t>监控审计</t>
   </si>
   <si>
-    <t>公网开放敏感服务监控、内网蜜罐监控是否存在内网攻击</t>
+    <t>公网开放敏感服务监控</t>
+  </si>
+  <si>
+    <t>jump server操作记录审计</t>
+  </si>
+  <si>
+    <t>蜜罐</t>
   </si>
   <si>
     <t>waf、续费提醒</t>
@@ -438,10 +444,13 @@
     <t>SOC系统收集WAF/异常日志等</t>
   </si>
   <si>
+    <t>渗透测试、自动化回归测试、网络攻击异常日志</t>
+  </si>
+  <si>
+    <t>渗透测试、自动化回归测试、合规检查</t>
+  </si>
+  <si>
     <t>渗透测试、自动化回归测试</t>
-  </si>
-  <si>
-    <t>渗透测试、自动化回归测试、合规检查</t>
   </si>
   <si>
     <t>mysql-audit、数据使用合规检查、数据获取审计</t>
@@ -1161,17 +1170,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1526,7 +1535,7 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2056,8 +2065,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1"/>
-    <row r="16" s="8" customFormat="1"/>
+    <row r="15" s="9" customFormat="1"/>
+    <row r="16" s="9" customFormat="1"/>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>50</v>
@@ -2077,7 +2086,7 @@
     </row>
     <row r="19" ht="43.2" spans="1:3">
       <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2230,7 +2239,7 @@
       <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2385,7 +2394,7 @@
       <c r="B25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2432,8 +2441,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2458,18 +2467,26 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="6"/>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
@@ -2479,7 +2496,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2488,7 +2505,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2499,7 +2516,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2508,7 +2525,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2517,7 +2534,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2528,7 +2545,7 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2537,7 +2554,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2546,7 +2563,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2555,7 +2572,7 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2566,7 +2583,7 @@
         <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2575,7 +2592,7 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2586,7 +2603,7 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2597,7 +2614,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2608,10 +2625,10 @@
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2622,7 +2639,7 @@
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2633,16 +2650,17 @@
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2662,72 +2680,72 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
@@ -2774,7 +2792,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -1535,8 +1535,8 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1907,7 +1907,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2204,8 +2204,8 @@
   <sheetPr/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2441,8 +2441,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2673,7 +2673,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>

--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>资产类型</t>
   </si>
   <si>
-    <t>安全管理问题</t>
+    <t>安全管理问题，权限管理要重点关注</t>
   </si>
   <si>
     <t>管理方案</t>
@@ -1535,8 +1535,8 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1545,13 +1545,14 @@
     <col min="2" max="2" width="19" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.5462962962963" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.5555555555556" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23" style="4" customWidth="1"/>
-    <col min="6" max="7" width="8.73148148148148" style="3"/>
+    <col min="5" max="5" width="24.2222222222222" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.8888888888889" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.73148148148148" style="3"/>
     <col min="8" max="8" width="18.2222222222222" style="4" customWidth="1"/>
     <col min="9" max="16384" width="8.73148148148148" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="28.8" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1908,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A11" sqref="A11:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2205,7 +2206,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2441,8 +2442,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2673,7 +2674,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2785,7 +2786,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/建设推进顺序.xlsx
+++ b/建设推进顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="171">
   <si>
     <t>资产梳理</t>
   </si>
@@ -366,7 +366,7 @@
     <t>安全加固</t>
   </si>
   <si>
-    <t>HIDS/高防</t>
+    <t>HIDS/高防/防火墙</t>
   </si>
   <si>
     <t>阿里云基础版免费</t>
@@ -456,7 +456,7 @@
     <t>mysql-audit、数据使用合规检查、数据获取审计</t>
   </si>
   <si>
-    <t>安全情报，应用升级</t>
+    <t>安全情报，应用升级，威胁情报</t>
   </si>
   <si>
     <t>GitHub监控、git权限审计，操作审计</t>
@@ -519,7 +519,19 @@
     <t>数据安全、脱敏</t>
   </si>
   <si>
-    <t>SOC</t>
+    <t>SOC平台</t>
+  </si>
+  <si>
+    <t>SOAR平台</t>
+  </si>
+  <si>
+    <t>对既有安全产品、网络设备、IT系统和SaaS服务等基础能力进行统筹调度；基于可视化剧本编排和调度执行引擎，开展有逻辑、有顺序的自动化流程操作，实现日常安全事件运营和突发事件处置的过程自动化</t>
+  </si>
+  <si>
+    <t>基于前面建设的基础设备提供的日志信息等，进行相关的审计分析，持续运营。</t>
+  </si>
+  <si>
+    <t>平台实现，事件发现，接入安全设备，事件阻止的直接能力。</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2218,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2442,8 +2454,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2783,17 +2795,35 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
